--- a/biology/Zoologie/Burmagomphus/Burmagomphus.xlsx
+++ b/biology/Zoologie/Burmagomphus/Burmagomphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Burmagomphus est un genre de libellules de la famille des Gomphidae et du sous-ordre des Anisoptères[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burmagomphus est un genre de libellules de la famille des Gomphidae et du sous-ordre des Anisoptères.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 avril 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 avril 2020) :
 Burmagomphus arboreus Lieftinck, 1940
 Burmagomphus arthuri Lieftinck, 1953
 Burmagomphus arvalis (Needham, 1930)
@@ -567,7 +581,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Burmagomphus doit son nom à sa proximité avec le genre Gomphus et fait référence à la Birmanie, pays dans lequel l'espèce type a été découverte.
 </t>
@@ -598,7 +614,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Edward Bruce Williamson, « The dragonflies (Odonata) of Burma and Lower Siam..II. Subfamilies Cordulegasterinae, Chlorogomphinae, and Gomphinae », Proceedings of the United States National Museum, Washington, Inconnu, vol. 33,‎ 1907, p. 267-317 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, lire en ligne)</t>
         </is>
